--- a/design/reqdoc.xlsx
+++ b/design/reqdoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaun\Desktop\Would-You-Rather\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19830FC7-FE54-48AD-BD88-459C751408A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2845070C-2329-4683-A9F7-4635F92A617B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="6945" xr2:uid="{A59A8358-8ACF-4C3F-9035-76125E339259}"/>
   </bookViews>
@@ -182,12 +182,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,7 +225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F542D25-094F-4D95-AB2F-F49106F4DC07}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +569,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -568,7 +577,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -576,7 +585,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -584,7 +593,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -592,7 +601,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -600,7 +609,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -608,7 +617,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -616,7 +625,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -624,7 +633,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -632,7 +641,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -640,22 +649,22 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -663,22 +672,22 @@
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
